--- a/rotmic/static/uploadexample_dnasample.xlsx
+++ b/rotmic/static/uploadexample_dnasample.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="38">
   <si>
     <t>Description</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Note, the preparation date needs to be formatted as shown in the example</t>
+  </si>
+  <si>
+    <t>experiment #</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -587,33 +590,33 @@
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="5" customWidth="1"/>
     <col min="3" max="3" width="17.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="14" style="7" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="41" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="14" style="7" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
@@ -626,32 +629,35 @@
       <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -664,472 +670,510 @@
       <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="7">
+      <c r="G6" s="7">
         <v>120</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
       <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="7">
+      <c r="J6" s="7">
         <v>100</v>
       </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="7">
         <v>5</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="E7" s="11"/>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="11"/>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="E8" s="11"/>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="E9" s="11"/>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="11"/>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="E10" s="11"/>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="E11" s="11"/>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="E12" s="11"/>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="E13" s="11"/>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="11"/>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="E14" s="11"/>
+      <c r="H14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="E15" s="11"/>
+      <c r="H15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="11"/>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10">
+      <c r="E16" s="11"/>
+      <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10">
+      <c r="E17" s="11"/>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="11"/>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10">
+      <c r="E18" s="11"/>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="G19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10">
+      <c r="E19" s="11"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
       <c r="C20" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="11"/>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10">
+      <c r="E20" s="11"/>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="G21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10">
+      <c r="E21" s="11"/>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="G22" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10">
+      <c r="E22" s="11"/>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10">
+      <c r="E23" s="11"/>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
       <c r="C24" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10">
+      <c r="E24" s="11"/>
+      <c r="H24" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="C25" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="11"/>
-      <c r="G25" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="E25" s="11"/>
+      <c r="H25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
       <c r="C26" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="11"/>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10">
+      <c r="E26" s="11"/>
+      <c r="H26" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
       <c r="C27" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="G27" t="s">
-        <v>23</v>
-      </c>
-      <c r="J27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10">
+      <c r="E27" s="11"/>
+      <c r="H27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
       <c r="C28" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10">
+      <c r="E28" s="11"/>
+      <c r="H28" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
-      <c r="J29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10">
+      <c r="E29" s="11"/>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10">
+      <c r="E30" s="11"/>
+      <c r="H30" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="11"/>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10">
+      <c r="E31" s="11"/>
+      <c r="H31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
       <c r="C32" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="G32" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10">
+      <c r="E32" s="11"/>
+      <c r="H32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="C33" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="11"/>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10">
+      <c r="E33" s="11"/>
+      <c r="H33" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11">
       <c r="C34" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="11"/>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10">
+      <c r="E34" s="11"/>
+      <c r="H34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="G35" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10">
+      <c r="E35" s="11"/>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11">
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="G36" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10">
+      <c r="E36" s="11"/>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11">
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="11"/>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10">
+      <c r="E37" s="11"/>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11">
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="G38" t="s">
-        <v>23</v>
-      </c>
-      <c r="J38" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10">
+      <c r="E38" s="11"/>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
       <c r="C39" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="11"/>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="J39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="E39" s="11"/>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11">
       <c r="C40" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10">
+      <c r="E40" s="11"/>
+      <c r="H40" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11">
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="11"/>
-      <c r="G41" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10">
+      <c r="E41" s="11"/>
+      <c r="H41" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
       <c r="C42" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="G42" t="s">
-        <v>23</v>
-      </c>
-      <c r="J42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10">
+      <c r="E42" s="11"/>
+      <c r="H42" t="s">
+        <v>23</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
       <c r="C43" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="11"/>
-      <c r="G43" t="s">
-        <v>23</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="E43" s="11"/>
+      <c r="H43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1138,10 +1182,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C43">
       <formula1>statusChoices</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G6:G43">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H6:H43">
       <formula1>concentrationUnits</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K43">
       <formula1>amountUnits</formula1>
     </dataValidation>
   </dataValidations>
